--- a/jsonToExcel/XQ/XQ-2-output.xlsx
+++ b/jsonToExcel/XQ/XQ-2-output.xlsx
@@ -397,1652 +397,2788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>店铺ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>SPU系统</v>
+      </c>
+      <c r="C1" t="str">
         <v>SKC系统</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>SKU系统</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>条码编码</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>SKC货号</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>SKU货号</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>中文颜色</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>尺码</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>英文颜色</v>
+      </c>
+      <c r="K1" t="str">
+        <v>缩略图</v>
+      </c>
+      <c r="L1" t="str">
+        <v>类目标签</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>634418224421330</v>
+      </c>
+      <c r="B2">
+        <v>8379762009</v>
+      </c>
+      <c r="C2">
         <v>47002598397</v>
       </c>
-      <c r="B2">
-        <v>42048998606</v>
-      </c>
-      <c r="C2">
-        <v>87132149247</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="D2">
+        <v>72026217566</v>
+      </c>
+      <c r="E2">
+        <v>55711174232</v>
+      </c>
+      <c r="F2" t="str">
         <v>8361</v>
       </c>
-      <c r="E2" t="str">
-        <v>8361p-XQ-DarkBlue-30</v>
-      </c>
-      <c r="F2" t="str">
-        <v>深蓝</v>
-      </c>
       <c r="G2" t="str">
-        <v>30</v>
+        <v>8361p-XQ-BlackGreen-35</v>
       </c>
       <c r="H2" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I2" t="str">
+        <v>35</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K2" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L2" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>634418224421330</v>
+      </c>
+      <c r="B3">
+        <v>8379762009</v>
+      </c>
+      <c r="C3">
         <v>47002598397</v>
       </c>
-      <c r="B3">
-        <v>53483805330</v>
-      </c>
-      <c r="C3">
-        <v>53842321096</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="D3">
+        <v>12904296657</v>
+      </c>
+      <c r="E3">
+        <v>11341525614</v>
+      </c>
+      <c r="F3" t="str">
         <v>8361</v>
       </c>
-      <c r="E3" t="str">
-        <v>8361p-XQ-DarkBlue-28</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
+        <v>8361p-XQ-DarkBlue-37</v>
+      </c>
+      <c r="H3" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G3" t="str">
-        <v>28</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
+        <v>37</v>
+      </c>
+      <c r="J3" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://img.kwcdn.com/product/fancy/31469307-409c-42ea-ba9b-f19fcb6a0364.jpg</v>
+      </c>
+      <c r="L3" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>634418224421330</v>
+      </c>
+      <c r="B4">
+        <v>8379762009</v>
+      </c>
+      <c r="C4">
         <v>47002598397</v>
       </c>
-      <c r="B4">
-        <v>82787039614</v>
-      </c>
-      <c r="C4">
-        <v>67233531493</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="D4">
+        <v>15195188653</v>
+      </c>
+      <c r="E4">
+        <v>70674245888</v>
+      </c>
+      <c r="F4" t="str">
         <v>8361</v>
       </c>
-      <c r="E4" t="str">
-        <v>8361p-XQ-BlackGreen-29</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
+        <v>8361p-XQ-BlackGreen-28</v>
+      </c>
+      <c r="H4" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G4" t="str">
-        <v>29</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
+        <v>28</v>
+      </c>
+      <c r="J4" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L4" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>634418224421330</v>
+      </c>
+      <c r="B5">
+        <v>8379762009</v>
+      </c>
+      <c r="C5">
         <v>47002598397</v>
       </c>
-      <c r="B5">
-        <v>80584017612</v>
-      </c>
-      <c r="C5">
-        <v>24216777285</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="D5">
+        <v>90539298387</v>
+      </c>
+      <c r="E5">
+        <v>81826351047</v>
+      </c>
+      <c r="F5" t="str">
         <v>8361</v>
       </c>
-      <c r="E5" t="str">
-        <v>8361p-XQ-BlackGreen-30</v>
-      </c>
-      <c r="F5" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G5" t="str">
-        <v>30</v>
+        <v>8361p-XQ-DarkBlue-29</v>
       </c>
       <c r="H5" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I5" t="str">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://img.kwcdn.com/product/fancy/31469307-409c-42ea-ba9b-f19fcb6a0364.jpg</v>
+      </c>
+      <c r="L5" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>634418224421330</v>
+      </c>
+      <c r="B6">
+        <v>8379762009</v>
+      </c>
+      <c r="C6">
         <v>47002598397</v>
       </c>
-      <c r="B6">
-        <v>80699712401</v>
-      </c>
-      <c r="C6">
-        <v>81101286476</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="D6">
+        <v>62869571384</v>
+      </c>
+      <c r="E6">
+        <v>82041357063</v>
+      </c>
+      <c r="F6" t="str">
         <v>8361</v>
       </c>
-      <c r="E6" t="str">
-        <v>8361p-XQ-BlackGreen-38</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
+        <v>8361p-XQ-BlackGreen-31</v>
+      </c>
+      <c r="H6" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G6" t="str">
-        <v>38</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
+        <v>31</v>
+      </c>
+      <c r="J6" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L6" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B7">
-        <v>79698794820</v>
+        <v>8379762009</v>
       </c>
       <c r="C7">
-        <v>68181715789</v>
-      </c>
-      <c r="D7" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E7" t="str">
-        <v>6235-XQ-BlackGreen-35</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D7">
+        <v>56554917342</v>
+      </c>
+      <c r="E7">
+        <v>13663795659</v>
       </c>
       <c r="F7" t="str">
+        <v>8361</v>
+      </c>
+      <c r="G7" t="str">
+        <v>8361p-XQ-BlackGreen-34</v>
+      </c>
+      <c r="H7" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G7" t="str">
-        <v>35</v>
-      </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
+        <v>34</v>
+      </c>
+      <c r="J7" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L7" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B8">
-        <v>28147902602</v>
+        <v>8379762009</v>
       </c>
       <c r="C8">
-        <v>57287371693</v>
-      </c>
-      <c r="D8" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E8" t="str">
-        <v>6235-XQ-DarkBlue-28</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D8">
+        <v>63906688188</v>
+      </c>
+      <c r="E8">
+        <v>62389382617</v>
       </c>
       <c r="F8" t="str">
+        <v>8361</v>
+      </c>
+      <c r="G8" t="str">
+        <v>8361p-XQ-DarkBlue-32</v>
+      </c>
+      <c r="H8" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G8" t="str">
-        <v>28</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
+        <v>32</v>
+      </c>
+      <c r="J8" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K8" t="str">
+        <v>https://img.kwcdn.com/product/fancy/31469307-409c-42ea-ba9b-f19fcb6a0364.jpg</v>
+      </c>
+      <c r="L8" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B9">
-        <v>50364365565</v>
+        <v>8379762009</v>
       </c>
       <c r="C9">
-        <v>56152695452</v>
-      </c>
-      <c r="D9" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E9" t="str">
-        <v>6235-XQ-DarkBlue-34</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D9">
+        <v>23475024323</v>
+      </c>
+      <c r="E9">
+        <v>71215096999</v>
       </c>
       <c r="F9" t="str">
-        <v>深蓝</v>
+        <v>8361</v>
       </c>
       <c r="G9" t="str">
-        <v>34</v>
+        <v>8361p-XQ-BlackGreen-33</v>
       </c>
       <c r="H9" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I9" t="str">
+        <v>33</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L9" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B10">
-        <v>43284823868</v>
+        <v>8379762009</v>
       </c>
       <c r="C10">
-        <v>88700108148</v>
-      </c>
-      <c r="D10" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E10" t="str">
-        <v>6235-XQ-DarkBlue-37</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D10">
+        <v>56567583758</v>
+      </c>
+      <c r="E10">
+        <v>22680467878</v>
       </c>
       <c r="F10" t="str">
-        <v>深蓝</v>
+        <v>8361</v>
       </c>
       <c r="G10" t="str">
-        <v>37</v>
+        <v>8361p-XQ-BlackGreen-36</v>
       </c>
       <c r="H10" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I10" t="str">
+        <v>36</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L10" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B11">
-        <v>65931845165</v>
+        <v>8379762009</v>
       </c>
       <c r="C11">
-        <v>65346927895</v>
-      </c>
-      <c r="D11" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E11" t="str">
-        <v>6235-XQ-BlackGreen-37</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D11">
+        <v>83757381233</v>
+      </c>
+      <c r="E11">
+        <v>83956843360</v>
       </c>
       <c r="F11" t="str">
-        <v>黑绿</v>
+        <v>8361</v>
       </c>
       <c r="G11" t="str">
-        <v>37</v>
+        <v>8361p-XQ-DarkBlue-38</v>
       </c>
       <c r="H11" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I11" t="str">
+        <v>38</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://img.kwcdn.com/product/fancy/31469307-409c-42ea-ba9b-f19fcb6a0364.jpg</v>
+      </c>
+      <c r="L11" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B12">
-        <v>93256416599</v>
+        <v>8379762009</v>
       </c>
       <c r="C12">
-        <v>27147741889</v>
-      </c>
-      <c r="D12" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E12" t="str">
-        <v>6235-XQ-DarkBlue-30</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D12">
+        <v>42048998606</v>
+      </c>
+      <c r="E12">
+        <v>87132149247</v>
       </c>
       <c r="F12" t="str">
+        <v>8361</v>
+      </c>
+      <c r="G12" t="str">
+        <v>8361p-XQ-DarkBlue-30</v>
+      </c>
+      <c r="H12" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G12" t="str">
+      <c r="I12" t="str">
         <v>30</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://img.kwcdn.com/product/fancy/31469307-409c-42ea-ba9b-f19fcb6a0364.jpg</v>
+      </c>
+      <c r="L12" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B13">
-        <v>67336687269</v>
+        <v>8379762009</v>
       </c>
       <c r="C13">
-        <v>89667984333</v>
-      </c>
-      <c r="D13" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E13" t="str">
-        <v>6235-XQ-DarkBlue-38</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D13">
+        <v>53483805330</v>
+      </c>
+      <c r="E13">
+        <v>53842321096</v>
       </c>
       <c r="F13" t="str">
+        <v>8361</v>
+      </c>
+      <c r="G13" t="str">
+        <v>8361p-XQ-DarkBlue-28</v>
+      </c>
+      <c r="H13" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G13" t="str">
-        <v>38</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
+        <v>28</v>
+      </c>
+      <c r="J13" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://img.kwcdn.com/product/fancy/31469307-409c-42ea-ba9b-f19fcb6a0364.jpg</v>
+      </c>
+      <c r="L13" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B14">
-        <v>99860537604</v>
+        <v>8379762009</v>
       </c>
       <c r="C14">
-        <v>18994074400</v>
-      </c>
-      <c r="D14" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E14" t="str">
-        <v>6235-XQ-BlackGreen-31</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D14">
+        <v>82787039614</v>
+      </c>
+      <c r="E14">
+        <v>67233531493</v>
       </c>
       <c r="F14" t="str">
+        <v>8361</v>
+      </c>
+      <c r="G14" t="str">
+        <v>8361p-XQ-BlackGreen-29</v>
+      </c>
+      <c r="H14" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G14" t="str">
-        <v>31</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L14" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B15">
-        <v>51598364990</v>
+        <v>8379762009</v>
       </c>
       <c r="C15">
-        <v>82309669203</v>
-      </c>
-      <c r="D15" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E15" t="str">
-        <v>6235-XQ-DarkBlue-31</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D15">
+        <v>80584017612</v>
+      </c>
+      <c r="E15">
+        <v>24216777285</v>
       </c>
       <c r="F15" t="str">
-        <v>深蓝</v>
+        <v>8361</v>
       </c>
       <c r="G15" t="str">
-        <v>31</v>
+        <v>8361p-XQ-BlackGreen-30</v>
       </c>
       <c r="H15" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I15" t="str">
+        <v>30</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L15" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>47046104023</v>
+        <v>634418224421330</v>
       </c>
       <c r="B16">
-        <v>74301352795</v>
+        <v>8379762009</v>
       </c>
       <c r="C16">
-        <v>63110245493</v>
-      </c>
-      <c r="D16" t="str">
-        <v>6235</v>
-      </c>
-      <c r="E16" t="str">
-        <v>6235-XQ-BlackGreen-32</v>
+        <v>47002598397</v>
+      </c>
+      <c r="D16">
+        <v>80699712401</v>
+      </c>
+      <c r="E16">
+        <v>81101286476</v>
       </c>
       <c r="F16" t="str">
+        <v>8361</v>
+      </c>
+      <c r="G16" t="str">
+        <v>8361p-XQ-BlackGreen-38</v>
+      </c>
+      <c r="H16" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G16" t="str">
-        <v>32</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
+        <v>38</v>
+      </c>
+      <c r="J16" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd67d248-e719-4723-a1e7-106a4ffcde15.jpg</v>
+      </c>
+      <c r="L16" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>634418224421330</v>
+      </c>
+      <c r="B17">
+        <v>9260225505</v>
+      </c>
+      <c r="C17">
         <v>47046104023</v>
       </c>
-      <c r="B17">
-        <v>17070695476</v>
-      </c>
-      <c r="C17">
-        <v>24117383436</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="D17">
+        <v>79698794820</v>
+      </c>
+      <c r="E17">
+        <v>68181715789</v>
+      </c>
+      <c r="F17" t="str">
         <v>6235</v>
       </c>
-      <c r="E17" t="str">
-        <v>6235-XQ-BlackGreen-38</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
+        <v>6235-XQ-BlackGreen-35</v>
+      </c>
+      <c r="H17" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G17" t="str">
-        <v>38</v>
-      </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
+        <v>35</v>
+      </c>
+      <c r="J17" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L17" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>634418224421330</v>
+      </c>
+      <c r="B18">
+        <v>9260225505</v>
+      </c>
+      <c r="C18">
         <v>47046104023</v>
       </c>
-      <c r="B18">
-        <v>40029208429</v>
-      </c>
-      <c r="C18">
-        <v>78053195619</v>
-      </c>
-      <c r="D18" t="str">
+      <c r="D18">
+        <v>28147902602</v>
+      </c>
+      <c r="E18">
+        <v>57287371693</v>
+      </c>
+      <c r="F18" t="str">
         <v>6235</v>
       </c>
-      <c r="E18" t="str">
-        <v>6235-XQ-DarkBlue-32</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
+        <v>6235-XQ-DarkBlue-28</v>
+      </c>
+      <c r="H18" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G18" t="str">
-        <v>32</v>
-      </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
+        <v>28</v>
+      </c>
+      <c r="J18" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L18" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>634418224421330</v>
+      </c>
+      <c r="B19">
+        <v>9260225505</v>
+      </c>
+      <c r="C19">
         <v>47046104023</v>
       </c>
-      <c r="B19">
-        <v>10590079135</v>
-      </c>
-      <c r="C19">
-        <v>63731877012</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="D19">
+        <v>50364365565</v>
+      </c>
+      <c r="E19">
+        <v>56152695452</v>
+      </c>
+      <c r="F19" t="str">
         <v>6235</v>
       </c>
-      <c r="E19" t="str">
-        <v>6235-XQ-DarkBlue-35</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
+        <v>6235-XQ-DarkBlue-34</v>
+      </c>
+      <c r="H19" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G19" t="str">
-        <v>35</v>
-      </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
+        <v>34</v>
+      </c>
+      <c r="J19" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L19" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>634418224421330</v>
+      </c>
+      <c r="B20">
+        <v>9260225505</v>
+      </c>
+      <c r="C20">
         <v>47046104023</v>
       </c>
-      <c r="B20">
-        <v>86532434954</v>
-      </c>
-      <c r="C20">
-        <v>46279437166</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="D20">
+        <v>43284823868</v>
+      </c>
+      <c r="E20">
+        <v>88700108148</v>
+      </c>
+      <c r="F20" t="str">
         <v>6235</v>
       </c>
-      <c r="E20" t="str">
-        <v>6235-XQ-BlackGreen-33</v>
-      </c>
-      <c r="F20" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G20" t="str">
-        <v>33</v>
+        <v>6235-XQ-DarkBlue-37</v>
       </c>
       <c r="H20" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I20" t="str">
+        <v>37</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L20" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>634418224421330</v>
+      </c>
+      <c r="B21">
+        <v>9260225505</v>
+      </c>
+      <c r="C21">
         <v>47046104023</v>
       </c>
-      <c r="B21">
-        <v>78761529928</v>
-      </c>
-      <c r="C21">
-        <v>81337245038</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="D21">
+        <v>65931845165</v>
+      </c>
+      <c r="E21">
+        <v>65346927895</v>
+      </c>
+      <c r="F21" t="str">
         <v>6235</v>
       </c>
-      <c r="E21" t="str">
-        <v>6235-XQ-BlackGreen-36</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
+        <v>6235-XQ-BlackGreen-37</v>
+      </c>
+      <c r="H21" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G21" t="str">
-        <v>36</v>
-      </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
+        <v>37</v>
+      </c>
+      <c r="J21" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L21" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>634418224421330</v>
+      </c>
+      <c r="B22">
+        <v>9260225505</v>
+      </c>
+      <c r="C22">
         <v>47046104023</v>
       </c>
-      <c r="B22">
-        <v>75726227502</v>
-      </c>
-      <c r="C22">
-        <v>60525294281</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="D22">
+        <v>93256416599</v>
+      </c>
+      <c r="E22">
+        <v>27147741889</v>
+      </c>
+      <c r="F22" t="str">
         <v>6235</v>
       </c>
-      <c r="E22" t="str">
-        <v>6235-XQ-BlackGreen-29</v>
-      </c>
-      <c r="F22" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G22" t="str">
-        <v>29</v>
+        <v>6235-XQ-DarkBlue-30</v>
       </c>
       <c r="H22" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I22" t="str">
+        <v>30</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L22" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>634418224421330</v>
+      </c>
+      <c r="B23">
+        <v>9260225505</v>
+      </c>
+      <c r="C23">
         <v>47046104023</v>
       </c>
-      <c r="B23">
-        <v>75865277801</v>
-      </c>
-      <c r="C23">
-        <v>94644778183</v>
-      </c>
-      <c r="D23" t="str">
+      <c r="D23">
+        <v>67336687269</v>
+      </c>
+      <c r="E23">
+        <v>89667984333</v>
+      </c>
+      <c r="F23" t="str">
         <v>6235</v>
       </c>
-      <c r="E23" t="str">
-        <v>6235-XQ-BlackGreen-28</v>
-      </c>
-      <c r="F23" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G23" t="str">
-        <v>28</v>
+        <v>6235-XQ-DarkBlue-38</v>
       </c>
       <c r="H23" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I23" t="str">
+        <v>38</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K23" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L23" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>634418224421330</v>
+      </c>
+      <c r="B24">
+        <v>9260225505</v>
+      </c>
+      <c r="C24">
         <v>47046104023</v>
       </c>
-      <c r="B24">
-        <v>23524215216</v>
-      </c>
-      <c r="C24">
-        <v>25013712611</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="D24">
+        <v>99860537604</v>
+      </c>
+      <c r="E24">
+        <v>18994074400</v>
+      </c>
+      <c r="F24" t="str">
         <v>6235</v>
       </c>
-      <c r="E24" t="str">
-        <v>6235-XQ-BlackGreen-34</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
+        <v>6235-XQ-BlackGreen-31</v>
+      </c>
+      <c r="H24" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G24" t="str">
-        <v>34</v>
-      </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
+        <v>31</v>
+      </c>
+      <c r="J24" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K24" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L24" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>634418224421330</v>
+      </c>
+      <c r="B25">
+        <v>9260225505</v>
+      </c>
+      <c r="C25">
         <v>47046104023</v>
       </c>
-      <c r="B25">
-        <v>76537720558</v>
-      </c>
-      <c r="C25">
-        <v>79945779360</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="D25">
+        <v>51598364990</v>
+      </c>
+      <c r="E25">
+        <v>82309669203</v>
+      </c>
+      <c r="F25" t="str">
         <v>6235</v>
       </c>
-      <c r="E25" t="str">
-        <v>6235-XQ-DarkBlue-29</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
+        <v>6235-XQ-DarkBlue-31</v>
+      </c>
+      <c r="H25" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G25" t="str">
-        <v>29</v>
-      </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
+        <v>31</v>
+      </c>
+      <c r="J25" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K25" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L25" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>634418224421330</v>
+      </c>
+      <c r="B26">
+        <v>9260225505</v>
+      </c>
+      <c r="C26">
         <v>47046104023</v>
       </c>
-      <c r="B26">
-        <v>14121926092</v>
-      </c>
-      <c r="C26">
-        <v>42215764316</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="D26">
+        <v>74301352795</v>
+      </c>
+      <c r="E26">
+        <v>63110245493</v>
+      </c>
+      <c r="F26" t="str">
         <v>6235</v>
       </c>
-      <c r="E26" t="str">
-        <v>6235-XQ-BlackGreen-30</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
+        <v>6235-XQ-BlackGreen-32</v>
+      </c>
+      <c r="H26" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G26" t="str">
-        <v>30</v>
-      </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
+        <v>32</v>
+      </c>
+      <c r="J26" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K26" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L26" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>634418224421330</v>
+      </c>
+      <c r="B27">
+        <v>9260225505</v>
+      </c>
+      <c r="C27">
         <v>47046104023</v>
       </c>
-      <c r="B27">
-        <v>79215819574</v>
-      </c>
-      <c r="C27">
-        <v>82807906183</v>
-      </c>
-      <c r="D27" t="str">
+      <c r="D27">
+        <v>17070695476</v>
+      </c>
+      <c r="E27">
+        <v>24117383436</v>
+      </c>
+      <c r="F27" t="str">
         <v>6235</v>
       </c>
-      <c r="E27" t="str">
-        <v>6235-XQ-DarkBlue-33</v>
-      </c>
-      <c r="F27" t="str">
-        <v>深蓝</v>
-      </c>
       <c r="G27" t="str">
-        <v>33</v>
+        <v>6235-XQ-BlackGreen-38</v>
       </c>
       <c r="H27" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I27" t="str">
+        <v>38</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K27" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L27" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>634418224421330</v>
+      </c>
+      <c r="B28">
+        <v>9260225505</v>
+      </c>
+      <c r="C28">
         <v>47046104023</v>
       </c>
-      <c r="B28">
-        <v>48646576748</v>
-      </c>
-      <c r="C28">
-        <v>62949217220</v>
-      </c>
-      <c r="D28" t="str">
+      <c r="D28">
+        <v>40029208429</v>
+      </c>
+      <c r="E28">
+        <v>78053195619</v>
+      </c>
+      <c r="F28" t="str">
         <v>6235</v>
       </c>
-      <c r="E28" t="str">
-        <v>6235-XQ-DarkBlue-36</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
+        <v>6235-XQ-DarkBlue-32</v>
+      </c>
+      <c r="H28" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G28" t="str">
-        <v>36</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
+        <v>32</v>
+      </c>
+      <c r="J28" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K28" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L28" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B29">
-        <v>94101610571</v>
+        <v>9260225505</v>
       </c>
       <c r="C29">
-        <v>94297573942</v>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D29">
+        <v>10590079135</v>
+      </c>
+      <c r="E29">
+        <v>63731877012</v>
       </c>
       <c r="F29" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G29" t="str">
-        <v>29</v>
+        <v>6235-XQ-DarkBlue-35</v>
       </c>
       <c r="H29" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I29" t="str">
+        <v>35</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K29" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L29" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B30">
-        <v>21264582275</v>
+        <v>9260225505</v>
       </c>
       <c r="C30">
-        <v>50499737399</v>
-      </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D30">
+        <v>86532434954</v>
+      </c>
+      <c r="E30">
+        <v>46279437166</v>
       </c>
       <c r="F30" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G30" t="str">
+        <v>6235-XQ-BlackGreen-33</v>
+      </c>
+      <c r="H30" t="str">
+        <v>黑绿</v>
+      </c>
+      <c r="I30" t="str">
         <v>33</v>
       </c>
-      <c r="H30" t="str">
-        <v>Pink Color</v>
+      <c r="J30" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K30" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L30" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B31">
-        <v>32120992928</v>
+        <v>9260225505</v>
       </c>
       <c r="C31">
-        <v>19265501812</v>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D31">
+        <v>78761529928</v>
+      </c>
+      <c r="E31">
+        <v>81337245038</v>
       </c>
       <c r="F31" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G31" t="str">
-        <v>37</v>
+        <v>6235-XQ-BlackGreen-36</v>
       </c>
       <c r="H31" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I31" t="str">
+        <v>36</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K31" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L31" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B32">
-        <v>34859496896</v>
+        <v>9260225505</v>
       </c>
       <c r="C32">
-        <v>31452535181</v>
-      </c>
-      <c r="D32" t="str">
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D32">
+        <v>75726227502</v>
+      </c>
+      <c r="E32">
+        <v>60525294281</v>
       </c>
       <c r="F32" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G32" t="str">
-        <v>30</v>
+        <v>6235-XQ-BlackGreen-29</v>
       </c>
       <c r="H32" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I32" t="str">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K32" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L32" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B33">
-        <v>31713897926</v>
+        <v>9260225505</v>
       </c>
       <c r="C33">
-        <v>21233190787</v>
-      </c>
-      <c r="D33" t="str">
-        <v/>
-      </c>
-      <c r="E33" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D33">
+        <v>75865277801</v>
+      </c>
+      <c r="E33">
+        <v>94644778183</v>
       </c>
       <c r="F33" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G33" t="str">
-        <v>36</v>
+        <v>6235-XQ-BlackGreen-28</v>
       </c>
       <c r="H33" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I33" t="str">
+        <v>28</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K33" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L33" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B34">
-        <v>12245660853</v>
+        <v>9260225505</v>
       </c>
       <c r="C34">
-        <v>79398357422</v>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D34">
+        <v>23524215216</v>
+      </c>
+      <c r="E34">
+        <v>25013712611</v>
       </c>
       <c r="F34" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G34" t="str">
-        <v>32</v>
+        <v>6235-XQ-BlackGreen-34</v>
       </c>
       <c r="H34" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I34" t="str">
+        <v>34</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K34" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L34" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B35">
-        <v>64886039523</v>
+        <v>9260225505</v>
       </c>
       <c r="C35">
-        <v>20144432330</v>
-      </c>
-      <c r="D35" t="str">
-        <v/>
-      </c>
-      <c r="E35" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D35">
+        <v>76537720558</v>
+      </c>
+      <c r="E35">
+        <v>79945779360</v>
       </c>
       <c r="F35" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G35" t="str">
-        <v>28</v>
+        <v>6235-XQ-DarkBlue-29</v>
       </c>
       <c r="H35" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I35" t="str">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K35" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L35" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B36">
-        <v>68537238069</v>
+        <v>9260225505</v>
       </c>
       <c r="C36">
-        <v>38686761517</v>
-      </c>
-      <c r="D36" t="str">
-        <v/>
-      </c>
-      <c r="E36" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D36">
+        <v>14121926092</v>
+      </c>
+      <c r="E36">
+        <v>42215764316</v>
       </c>
       <c r="F36" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G36" t="str">
-        <v>35</v>
+        <v>6235-XQ-BlackGreen-30</v>
       </c>
       <c r="H36" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I36" t="str">
+        <v>30</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K36" t="str">
+        <v>https://img.kwcdn.com/product/fancy/bd3da2a9-847a-4841-8fc5-e20996723765.jpg</v>
+      </c>
+      <c r="L36" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B37">
-        <v>62404342949</v>
+        <v>9260225505</v>
       </c>
       <c r="C37">
-        <v>72130108320</v>
-      </c>
-      <c r="D37" t="str">
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D37">
+        <v>79215819574</v>
+      </c>
+      <c r="E37">
+        <v>82807906183</v>
       </c>
       <c r="F37" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G37" t="str">
-        <v>38</v>
+        <v>6235-XQ-DarkBlue-33</v>
       </c>
       <c r="H37" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I37" t="str">
+        <v>33</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K37" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L37" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>15942449846</v>
+        <v>634418224421330</v>
       </c>
       <c r="B38">
-        <v>47848246451</v>
+        <v>9260225505</v>
       </c>
       <c r="C38">
-        <v>97699385243</v>
-      </c>
-      <c r="D38" t="str">
-        <v/>
-      </c>
-      <c r="E38" t="str">
-        <v/>
+        <v>47046104023</v>
+      </c>
+      <c r="D38">
+        <v>48646576748</v>
+      </c>
+      <c r="E38">
+        <v>62949217220</v>
       </c>
       <c r="F38" t="str">
-        <v>粉红色</v>
+        <v>6235</v>
       </c>
       <c r="G38" t="str">
-        <v>31</v>
+        <v>6235-XQ-DarkBlue-36</v>
       </c>
       <c r="H38" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I38" t="str">
+        <v>36</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://img.kwcdn.com/product/fancy/39f2afa8-4e49-4bc0-86ca-f07ffd69a637.jpg</v>
+      </c>
+      <c r="L38" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>634418224421330</v>
+      </c>
+      <c r="B39">
+        <v>3692309776</v>
+      </c>
+      <c r="C39">
         <v>15942449846</v>
       </c>
-      <c r="B39">
-        <v>93215121327</v>
-      </c>
-      <c r="C39">
-        <v>10197958767</v>
-      </c>
-      <c r="D39" t="str">
-        <v/>
-      </c>
-      <c r="E39" t="str">
-        <v/>
+      <c r="D39">
+        <v>94101610571</v>
+      </c>
+      <c r="E39">
+        <v>94297573942</v>
       </c>
       <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G39" t="str">
-        <v>26</v>
-      </c>
-      <c r="H39" t="str">
-        <v>Pink Color</v>
+      <c r="I39" t="str">
+        <v>29</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K39" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L39" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>634418224421330</v>
+      </c>
+      <c r="B40">
+        <v>3692309776</v>
+      </c>
+      <c r="C40">
         <v>15942449846</v>
       </c>
-      <c r="B40">
-        <v>82513052912</v>
-      </c>
-      <c r="C40">
-        <v>13423382030</v>
-      </c>
-      <c r="D40" t="str">
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <v/>
+      <c r="D40">
+        <v>21264582275</v>
+      </c>
+      <c r="E40">
+        <v>50499737399</v>
       </c>
       <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G40" t="str">
-        <v>34</v>
-      </c>
-      <c r="H40" t="str">
-        <v>Pink Color</v>
+      <c r="I40" t="str">
+        <v>33</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K40" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L40" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>634418224421330</v>
+      </c>
+      <c r="B41">
+        <v>3692309776</v>
+      </c>
+      <c r="C41">
         <v>15942449846</v>
       </c>
-      <c r="B41">
-        <v>83585075456</v>
-      </c>
-      <c r="C41">
-        <v>75185966938</v>
-      </c>
-      <c r="D41" t="str">
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <v/>
+      <c r="D41">
+        <v>32120992928</v>
+      </c>
+      <c r="E41">
+        <v>19265501812</v>
       </c>
       <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G41" t="str">
-        <v>27</v>
-      </c>
-      <c r="H41" t="str">
-        <v>Pink Color</v>
+      <c r="I41" t="str">
+        <v>37</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K41" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L41" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B42">
-        <v>57892022082</v>
+        <v>3692309776</v>
       </c>
       <c r="C42">
-        <v>52124915117</v>
-      </c>
-      <c r="D42" t="str">
-        <v/>
-      </c>
-      <c r="E42" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D42">
+        <v>34859496896</v>
+      </c>
+      <c r="E42">
+        <v>31452535181</v>
       </c>
       <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G42" t="str">
-        <v>38</v>
-      </c>
-      <c r="H42" t="str">
-        <v>Pink Color</v>
+      <c r="I42" t="str">
+        <v>30</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K42" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L42" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B43">
-        <v>42637013373</v>
+        <v>3692309776</v>
       </c>
       <c r="C43">
-        <v>88900562032</v>
-      </c>
-      <c r="D43" t="str">
-        <v/>
-      </c>
-      <c r="E43" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D43">
+        <v>31713897926</v>
+      </c>
+      <c r="E43">
+        <v>21233190787</v>
       </c>
       <c r="F43" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G43" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="H43" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I43" t="str">
+        <v>36</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K43" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L43" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B44">
-        <v>89328652796</v>
+        <v>3692309776</v>
       </c>
       <c r="C44">
-        <v>57129176679</v>
-      </c>
-      <c r="D44" t="str">
-        <v/>
-      </c>
-      <c r="E44" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D44">
+        <v>12245660853</v>
+      </c>
+      <c r="E44">
+        <v>79398357422</v>
       </c>
       <c r="F44" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G44" t="str">
-        <v>28</v>
+        <v/>
       </c>
       <c r="H44" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I44" t="str">
+        <v>32</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K44" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L44" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B45">
-        <v>61798932853</v>
+        <v>3692309776</v>
       </c>
       <c r="C45">
-        <v>78797699061</v>
-      </c>
-      <c r="D45" t="str">
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D45">
+        <v>64886039523</v>
+      </c>
+      <c r="E45">
+        <v>20144432330</v>
       </c>
       <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G45" t="str">
-        <v>34</v>
-      </c>
-      <c r="H45" t="str">
-        <v>Pink Color</v>
+      <c r="I45" t="str">
+        <v>28</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K45" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L45" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B46">
-        <v>94247159585</v>
+        <v>3692309776</v>
       </c>
       <c r="C46">
-        <v>35466308374</v>
-      </c>
-      <c r="D46" t="str">
-        <v/>
-      </c>
-      <c r="E46" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D46">
+        <v>68537238069</v>
+      </c>
+      <c r="E46">
+        <v>38686761517</v>
       </c>
       <c r="F46" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G46" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H46" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I46" t="str">
+        <v>35</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K46" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L46" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B47">
-        <v>19388173812</v>
+        <v>3692309776</v>
       </c>
       <c r="C47">
-        <v>29421338888</v>
-      </c>
-      <c r="D47" t="str">
-        <v/>
-      </c>
-      <c r="E47" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D47">
+        <v>62404342949</v>
+      </c>
+      <c r="E47">
+        <v>72130108320</v>
       </c>
       <c r="F47" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G47" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="H47" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I47" t="str">
+        <v>38</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K47" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L47" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B48">
-        <v>34547059903</v>
+        <v>3692309776</v>
       </c>
       <c r="C48">
-        <v>87903806384</v>
-      </c>
-      <c r="D48" t="str">
-        <v/>
-      </c>
-      <c r="E48" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D48">
+        <v>47848246451</v>
+      </c>
+      <c r="E48">
+        <v>97699385243</v>
       </c>
       <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G48" t="str">
-        <v>36</v>
-      </c>
-      <c r="H48" t="str">
-        <v>Pink Color</v>
+      <c r="I48" t="str">
+        <v>31</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K48" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L48" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B49">
-        <v>27348074217</v>
+        <v>3692309776</v>
       </c>
       <c r="C49">
-        <v>53700474869</v>
-      </c>
-      <c r="D49" t="str">
-        <v/>
-      </c>
-      <c r="E49" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D49">
+        <v>93215121327</v>
+      </c>
+      <c r="E49">
+        <v>10197958767</v>
       </c>
       <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G49" t="str">
-        <v>35</v>
-      </c>
-      <c r="H49" t="str">
-        <v>Pink Color</v>
+      <c r="I49" t="str">
+        <v>26</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K49" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L49" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B50">
-        <v>61249976118</v>
+        <v>3692309776</v>
       </c>
       <c r="C50">
-        <v>82791731806</v>
-      </c>
-      <c r="D50" t="str">
-        <v/>
-      </c>
-      <c r="E50" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D50">
+        <v>82513052912</v>
+      </c>
+      <c r="E50">
+        <v>13423382030</v>
       </c>
       <c r="F50" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G50" t="str">
-        <v>36</v>
+        <v/>
       </c>
       <c r="H50" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I50" t="str">
+        <v>34</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K50" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L50" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>91753403418</v>
+        <v>634418224421330</v>
       </c>
       <c r="B51">
-        <v>50667021866</v>
+        <v>3692309776</v>
       </c>
       <c r="C51">
-        <v>68023117221</v>
-      </c>
-      <c r="D51" t="str">
-        <v/>
-      </c>
-      <c r="E51" t="str">
-        <v/>
+        <v>15942449846</v>
+      </c>
+      <c r="D51">
+        <v>83585075456</v>
+      </c>
+      <c r="E51">
+        <v>75185966938</v>
       </c>
       <c r="F51" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G51" t="str">
-        <v>35</v>
+        <v/>
       </c>
       <c r="H51" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I51" t="str">
+        <v>27</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://img.kwcdn.com/product/fancy/d4a9ca8c-c079-4c45-a622-c61bf4170b8d.jpg</v>
+      </c>
+      <c r="L51" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>634418224421330</v>
+      </c>
+      <c r="B52">
+        <v>5880097703</v>
+      </c>
+      <c r="C52">
         <v>91753403418</v>
       </c>
-      <c r="B52">
-        <v>96152390930</v>
-      </c>
-      <c r="C52">
-        <v>47856883949</v>
-      </c>
-      <c r="D52" t="str">
-        <v/>
-      </c>
-      <c r="E52" t="str">
-        <v/>
+      <c r="D52">
+        <v>57892022082</v>
+      </c>
+      <c r="E52">
+        <v>52124915117</v>
       </c>
       <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G52" t="str">
-        <v>31</v>
-      </c>
-      <c r="H52" t="str">
-        <v>Pink Color</v>
+      <c r="I52" t="str">
+        <v>38</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K52" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L52" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>634418224421330</v>
+      </c>
+      <c r="B53">
+        <v>5880097703</v>
+      </c>
+      <c r="C53">
         <v>91753403418</v>
       </c>
-      <c r="B53">
-        <v>54099242970</v>
-      </c>
-      <c r="C53">
-        <v>87022594292</v>
-      </c>
-      <c r="D53" t="str">
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <v/>
+      <c r="D53">
+        <v>42637013373</v>
+      </c>
+      <c r="E53">
+        <v>88900562032</v>
       </c>
       <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G53" t="str">
-        <v>32</v>
-      </c>
-      <c r="H53" t="str">
+      <c r="I53" t="str">
+        <v>33</v>
+      </c>
+      <c r="J53" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K53" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L53" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>634418224421330</v>
+      </c>
+      <c r="B54">
+        <v>5880097703</v>
+      </c>
+      <c r="C54">
         <v>91753403418</v>
       </c>
-      <c r="B54">
-        <v>26587269313</v>
-      </c>
-      <c r="C54">
-        <v>73040614999</v>
-      </c>
-      <c r="D54" t="str">
-        <v/>
-      </c>
-      <c r="E54" t="str">
-        <v/>
+      <c r="D54">
+        <v>89328652796</v>
+      </c>
+      <c r="E54">
+        <v>57129176679</v>
       </c>
       <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G54" t="str">
-        <v>30</v>
-      </c>
-      <c r="H54" t="str">
+      <c r="I54" t="str">
+        <v>28</v>
+      </c>
+      <c r="J54" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K54" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L54" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <v>634418224421330</v>
+      </c>
+      <c r="B55">
+        <v>5880097703</v>
+      </c>
+      <c r="C55">
         <v>91753403418</v>
       </c>
-      <c r="B55">
-        <v>92717663548</v>
-      </c>
-      <c r="C55">
-        <v>17068461802</v>
-      </c>
-      <c r="D55" t="str">
-        <v/>
-      </c>
-      <c r="E55" t="str">
-        <v/>
+      <c r="D55">
+        <v>61798932853</v>
+      </c>
+      <c r="E55">
+        <v>78797699061</v>
       </c>
       <c r="F55" t="str">
-        <v>熏衣草淡紫</v>
+        <v/>
       </c>
       <c r="G55" t="str">
-        <v>38</v>
+        <v/>
       </c>
       <c r="H55" t="str">
-        <v>Lavender</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I55" t="str">
+        <v>34</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K55" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L55" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
+        <v>634418224421330</v>
+      </c>
+      <c r="B56">
+        <v>5880097703</v>
+      </c>
+      <c r="C56">
         <v>91753403418</v>
       </c>
-      <c r="B56">
-        <v>14633746594</v>
-      </c>
-      <c r="C56">
-        <v>58396801001</v>
-      </c>
-      <c r="D56" t="str">
-        <v/>
-      </c>
-      <c r="E56" t="str">
-        <v/>
+      <c r="D56">
+        <v>94247159585</v>
+      </c>
+      <c r="E56">
+        <v>35466308374</v>
       </c>
       <c r="F56" t="str">
-        <v>粉红色</v>
+        <v/>
       </c>
       <c r="G56" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H56" t="str">
-        <v>Pink Color</v>
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I56" t="str">
+        <v>34</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K56" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L56" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <v>634418224421330</v>
+      </c>
+      <c r="B57">
+        <v>5880097703</v>
+      </c>
+      <c r="C57">
         <v>91753403418</v>
       </c>
-      <c r="B57">
-        <v>19695896246</v>
-      </c>
-      <c r="C57">
-        <v>98712684763</v>
-      </c>
-      <c r="D57" t="str">
-        <v/>
-      </c>
-      <c r="E57" t="str">
-        <v/>
+      <c r="D57">
+        <v>19388173812</v>
+      </c>
+      <c r="E57">
+        <v>29421338888</v>
       </c>
       <c r="F57" t="str">
-        <v>粉红色</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="H57" t="str">
-        <v>Pink Color</v>
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I57" t="str">
+        <v>37</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K57" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L57" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
+        <v>634418224421330</v>
+      </c>
+      <c r="B58">
+        <v>5880097703</v>
+      </c>
+      <c r="C58">
         <v>91753403418</v>
       </c>
-      <c r="B58">
-        <v>94664335176</v>
-      </c>
-      <c r="C58">
-        <v>61227648798</v>
-      </c>
-      <c r="D58" t="str">
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <v/>
+      <c r="D58">
+        <v>34547059903</v>
+      </c>
+      <c r="E58">
+        <v>87903806384</v>
       </c>
       <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G58" t="str">
-        <v>37</v>
-      </c>
-      <c r="H58" t="str">
-        <v>Pink Color</v>
+      <c r="I58" t="str">
+        <v>36</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K58" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L58" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
+        <v>634418224421330</v>
+      </c>
+      <c r="B59">
+        <v>5880097703</v>
+      </c>
+      <c r="C59">
         <v>91753403418</v>
       </c>
-      <c r="B59">
-        <v>22826682231</v>
-      </c>
-      <c r="C59">
-        <v>19200695144</v>
-      </c>
-      <c r="D59" t="str">
-        <v/>
-      </c>
-      <c r="E59" t="str">
-        <v/>
+      <c r="D59">
+        <v>27348074217</v>
+      </c>
+      <c r="E59">
+        <v>53700474869</v>
       </c>
       <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G59" t="str">
-        <v>28</v>
-      </c>
-      <c r="H59" t="str">
-        <v>Pink Color</v>
+      <c r="I59" t="str">
+        <v>35</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L59" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
+        <v>634418224421330</v>
+      </c>
+      <c r="B60">
+        <v>5880097703</v>
+      </c>
+      <c r="C60">
         <v>91753403418</v>
       </c>
-      <c r="B60">
-        <v>21679716895</v>
-      </c>
-      <c r="C60">
-        <v>74604095032</v>
-      </c>
-      <c r="D60" t="str">
-        <v/>
-      </c>
-      <c r="E60" t="str">
-        <v/>
+      <c r="D60">
+        <v>61249976118</v>
+      </c>
+      <c r="E60">
+        <v>82791731806</v>
       </c>
       <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G60" t="str">
-        <v>31</v>
-      </c>
-      <c r="H60" t="str">
+      <c r="I60" t="str">
+        <v>36</v>
+      </c>
+      <c r="J60" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L60" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
+        <v>634418224421330</v>
+      </c>
+      <c r="B61">
+        <v>5880097703</v>
+      </c>
+      <c r="C61">
         <v>91753403418</v>
       </c>
-      <c r="B61">
-        <v>17739465831</v>
-      </c>
-      <c r="C61">
-        <v>46447553102</v>
-      </c>
-      <c r="D61" t="str">
-        <v/>
-      </c>
-      <c r="E61" t="str">
-        <v/>
+      <c r="D61">
+        <v>50667021866</v>
+      </c>
+      <c r="E61">
+        <v>68023117221</v>
       </c>
       <c r="F61" t="str">
-        <v>粉红色</v>
+        <v/>
       </c>
       <c r="G61" t="str">
-        <v>30</v>
+        <v/>
       </c>
       <c r="H61" t="str">
-        <v>Pink Color</v>
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I61" t="str">
+        <v>35</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K61" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L61" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
+        <v>634418224421330</v>
+      </c>
+      <c r="B62">
+        <v>5880097703</v>
+      </c>
+      <c r="C62">
         <v>91753403418</v>
       </c>
-      <c r="B62">
-        <v>76115155257</v>
-      </c>
-      <c r="C62">
-        <v>92141317880</v>
-      </c>
-      <c r="D62" t="str">
-        <v/>
-      </c>
-      <c r="E62" t="str">
-        <v/>
+      <c r="D62">
+        <v>96152390930</v>
+      </c>
+      <c r="E62">
+        <v>47856883949</v>
       </c>
       <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G62" t="str">
-        <v>32</v>
-      </c>
-      <c r="H62" t="str">
-        <v>Pink Color</v>
+      <c r="I62" t="str">
+        <v>31</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L62" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
+        <v>634418224421330</v>
+      </c>
+      <c r="B63">
+        <v>5880097703</v>
+      </c>
+      <c r="C63">
         <v>91753403418</v>
       </c>
-      <c r="B63">
+      <c r="D63">
+        <v>54099242970</v>
+      </c>
+      <c r="E63">
+        <v>87022594292</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I63" t="str">
+        <v>32</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K63" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L63" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>634418224421330</v>
+      </c>
+      <c r="B64">
+        <v>5880097703</v>
+      </c>
+      <c r="C64">
+        <v>91753403418</v>
+      </c>
+      <c r="D64">
+        <v>26587269313</v>
+      </c>
+      <c r="E64">
+        <v>73040614999</v>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I64" t="str">
+        <v>30</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K64" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L64" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>634418224421330</v>
+      </c>
+      <c r="B65">
+        <v>5880097703</v>
+      </c>
+      <c r="C65">
+        <v>91753403418</v>
+      </c>
+      <c r="D65">
+        <v>92717663548</v>
+      </c>
+      <c r="E65">
+        <v>17068461802</v>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I65" t="str">
+        <v>38</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K65" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L65" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>634418224421330</v>
+      </c>
+      <c r="B66">
+        <v>5880097703</v>
+      </c>
+      <c r="C66">
+        <v>91753403418</v>
+      </c>
+      <c r="D66">
+        <v>14633746594</v>
+      </c>
+      <c r="E66">
+        <v>58396801001</v>
+      </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v>粉红色</v>
+      </c>
+      <c r="I66" t="str">
+        <v>29</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K66" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L66" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>634418224421330</v>
+      </c>
+      <c r="B67">
+        <v>5880097703</v>
+      </c>
+      <c r="C67">
+        <v>91753403418</v>
+      </c>
+      <c r="D67">
+        <v>19695896246</v>
+      </c>
+      <c r="E67">
+        <v>98712684763</v>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <v>粉红色</v>
+      </c>
+      <c r="I67" t="str">
+        <v>33</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K67" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L67" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>634418224421330</v>
+      </c>
+      <c r="B68">
+        <v>5880097703</v>
+      </c>
+      <c r="C68">
+        <v>91753403418</v>
+      </c>
+      <c r="D68">
+        <v>94664335176</v>
+      </c>
+      <c r="E68">
+        <v>61227648798</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v>粉红色</v>
+      </c>
+      <c r="I68" t="str">
+        <v>37</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K68" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L68" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>634418224421330</v>
+      </c>
+      <c r="B69">
+        <v>5880097703</v>
+      </c>
+      <c r="C69">
+        <v>91753403418</v>
+      </c>
+      <c r="D69">
+        <v>22826682231</v>
+      </c>
+      <c r="E69">
+        <v>19200695144</v>
+      </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v>粉红色</v>
+      </c>
+      <c r="I69" t="str">
+        <v>28</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K69" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L69" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>634418224421330</v>
+      </c>
+      <c r="B70">
+        <v>5880097703</v>
+      </c>
+      <c r="C70">
+        <v>91753403418</v>
+      </c>
+      <c r="D70">
+        <v>21679716895</v>
+      </c>
+      <c r="E70">
+        <v>74604095032</v>
+      </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <v>熏衣草淡紫</v>
+      </c>
+      <c r="I70" t="str">
+        <v>31</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Lavender</v>
+      </c>
+      <c r="K70" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L70" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>634418224421330</v>
+      </c>
+      <c r="B71">
+        <v>5880097703</v>
+      </c>
+      <c r="C71">
+        <v>91753403418</v>
+      </c>
+      <c r="D71">
+        <v>17739465831</v>
+      </c>
+      <c r="E71">
+        <v>46447553102</v>
+      </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v>粉红色</v>
+      </c>
+      <c r="I71" t="str">
+        <v>30</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K71" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L71" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>634418224421330</v>
+      </c>
+      <c r="B72">
+        <v>5880097703</v>
+      </c>
+      <c r="C72">
+        <v>91753403418</v>
+      </c>
+      <c r="D72">
+        <v>76115155257</v>
+      </c>
+      <c r="E72">
+        <v>92141317880</v>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v>粉红色</v>
+      </c>
+      <c r="I72" t="str">
+        <v>32</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K72" t="str">
+        <v>https://img.kwcdn.com/product/fancy/861a9c97-f2d9-473d-9812-d3aa3d9ce5fd.jpg</v>
+      </c>
+      <c r="L72" t="str">
+        <v>女童时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>634418224421330</v>
+      </c>
+      <c r="B73">
+        <v>5880097703</v>
+      </c>
+      <c r="C73">
+        <v>91753403418</v>
+      </c>
+      <c r="D73">
         <v>74703890296</v>
       </c>
-      <c r="C63">
+      <c r="E73">
         <v>51793397156</v>
       </c>
-      <c r="D63" t="str">
-        <v/>
-      </c>
-      <c r="E63" t="str">
-        <v/>
-      </c>
-      <c r="F63" t="str">
+      <c r="F73" t="str">
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G63" t="str">
+      <c r="I73" t="str">
         <v>29</v>
       </c>
-      <c r="H63" t="str">
+      <c r="J73" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K73" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b201c243-87c4-4f17-ab02-1d97cdb028f6.jpg</v>
+      </c>
+      <c r="L73" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L73"/>
   </ignoredErrors>
 </worksheet>
 </file>